--- a/Issue 3/Max 128 Issue 3 BOM.xlsx
+++ b/Issue 3/Max 128 Issue 3 BOM.xlsx
@@ -464,13 +464,7 @@
     </r>
   </si>
   <si>
-    <t>R3, R4, R5, R6, R15, R16, R24, R25, R32, R35, R45, R80, R81, R82, R83, R84</t>
-  </si>
-  <si>
     <t>C8, C9, C10, C11, C12, C13, C14, C15, C16, C17, C18, C22, C23, C24, C26, C31, C34</t>
-  </si>
-  <si>
-    <t>R1, R2, R7, R9, R12, R36, R56, R57, R58, R59, R60, R61, R62, R63, R64, R65, R66, R67, R68, R69, R70, R71, R72, R73, R74, R75, R76, R77, R78, R79</t>
   </si>
   <si>
     <t>BC1075TR-ND</t>
@@ -514,6 +508,12 @@
   <si>
     <t xml:space="preserve"> 
 ED3048-5-ND</t>
+  </si>
+  <si>
+    <t>R3, R4, R5, R6, R15, R16, R24, R25, R35, R45, R80, R81, R82, R83, R84</t>
+  </si>
+  <si>
+    <t>R1, R2, R7, R9, R12, R32, R36, R56, R57, R58, R59, R60, R61, R62, R63, R64, R65, R66, R67, R68, R69, R70, R71, R72, R73, R74, R75, R76, R77, R78, R79</t>
   </si>
 </sst>
 </file>
@@ -929,7 +929,7 @@
   <dimension ref="A1:D56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:F1048576"/>
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -975,7 +975,7 @@
     </row>
     <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>4</v>
@@ -1023,7 +1023,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D7" s="2">
         <v>2</v>
@@ -1093,7 +1093,7 @@
         <v>137</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D12" s="2">
         <v>1</v>
@@ -1163,7 +1163,7 @@
         <v>102</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D17" s="2">
         <v>1</v>
@@ -1255,7 +1255,7 @@
     </row>
     <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A24" s="7" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>22</v>
@@ -1264,12 +1264,12 @@
         <v>64</v>
       </c>
       <c r="D24" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>23</v>
@@ -1278,7 +1278,7 @@
         <v>65</v>
       </c>
       <c r="D25" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.4">
@@ -1647,11 +1647,11 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B52" s="10"/>
       <c r="C52" s="11" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D52" s="12">
         <v>1</v>
@@ -1659,11 +1659,11 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="10" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B53" s="10"/>
       <c r="C53" s="11" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D53" s="12">
         <v>1</v>
@@ -1671,11 +1671,11 @@
     </row>
     <row r="54" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A54" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B54" s="10"/>
       <c r="C54" s="13" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D54" s="12">
         <v>3</v>
@@ -1683,11 +1683,11 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B55" s="10"/>
       <c r="C55" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D55" s="12">
         <v>1</v>
@@ -1695,11 +1695,11 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B56" s="10"/>
       <c r="C56" s="14" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D56" s="12">
         <v>1</v>

--- a/Issue 3/Max 128 Issue 3 BOM.xlsx
+++ b/Issue 3/Max 128 Issue 3 BOM.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="160">
   <si>
     <t>Designator</t>
   </si>
@@ -59,9 +59,6 @@
     <t>1N4148</t>
   </si>
   <si>
-    <t>D13</t>
-  </si>
-  <si>
     <t>RCPT 8</t>
   </si>
   <si>
@@ -194,9 +191,6 @@
     <t>28.375MHz</t>
   </si>
   <si>
-    <t>Y1</t>
-  </si>
-  <si>
     <t>4.433MHz</t>
   </si>
   <si>
@@ -209,9 +203,6 @@
     <t>ZLDO1117G33DICT-ND</t>
   </si>
   <si>
-    <t>1528-1438-ND</t>
-  </si>
-  <si>
     <t>Tactile Switch</t>
   </si>
   <si>
@@ -429,9 +420,6 @@
   </si>
   <si>
     <t>U12 (Option)</t>
-  </si>
-  <si>
-    <t>U13 (Option)</t>
   </si>
   <si>
     <t>445-175393-1-ND</t>
@@ -515,12 +503,30 @@
   <si>
     <t>R1, R2, R7, R9, R12, R32, R36, R56, R57, R58, R59, R60, R61, R62, R63, R64, R65, R66, R67, R68, R69, R70, R71, R72, R73, R74, R75, R76, R77, R78, R79</t>
   </si>
+  <si>
+    <t>D21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U13 (Option)  </t>
+  </si>
+  <si>
+    <t>LCSC Part # C89297</t>
+  </si>
+  <si>
+    <t>Y1 Buy from Aliexpress, search for 28.375MHz</t>
+  </si>
+  <si>
+    <t>Note: Y1 buy from here</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.us/item/3256804924643676.html?spm=a2g0o.productlist.main.1.69ecb531MQJD0Y&amp;algo_pvid=f8189ddb-8fab-4334-927c-212d7a5233a3&amp;algo_exp_id=f8189ddb-8fab-4334-927c-212d7a5233a3-0&amp;pdp_npi=4%40dis%21USD%213.02%211.54%21%21%2122.00%21%21%40210321dc16976695767143414ecc84%2112000031697748677%21sea%21US%21703686525%21&amp;curPageLogUid=fvYFQqMhVbyQ</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -575,6 +581,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -614,10 +628,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -643,8 +658,10 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -926,10 +943,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D56"/>
+  <dimension ref="A1:D59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -942,7 +959,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.4">
@@ -953,7 +970,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>1</v>
@@ -961,13 +978,13 @@
     </row>
     <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D3" s="2">
         <v>7</v>
@@ -975,13 +992,13 @@
     </row>
     <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D4" s="2">
         <v>17</v>
@@ -989,13 +1006,13 @@
     </row>
     <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A5" s="8" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D5" s="2">
         <v>1</v>
@@ -1003,13 +1020,13 @@
     </row>
     <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D6" s="2">
         <v>1</v>
@@ -1017,13 +1034,13 @@
     </row>
     <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D7" s="2">
         <v>2</v>
@@ -1037,7 +1054,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D8" s="2">
         <v>1</v>
@@ -1045,13 +1062,13 @@
     </row>
     <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D9" s="2">
         <v>4</v>
@@ -1059,13 +1076,13 @@
     </row>
     <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D10" s="2">
         <v>2</v>
@@ -1073,13 +1090,13 @@
     </row>
     <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D11" s="2">
         <v>19</v>
@@ -1087,13 +1104,13 @@
     </row>
     <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>154</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D12" s="2">
         <v>1</v>
@@ -1101,13 +1118,13 @@
     </row>
     <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D13" s="2">
         <v>1</v>
@@ -1115,13 +1132,13 @@
     </row>
     <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D14" s="2">
         <v>1</v>
@@ -1129,13 +1146,13 @@
     </row>
     <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D15" s="2">
         <v>1</v>
@@ -1143,13 +1160,13 @@
     </row>
     <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A16" s="8" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D16" s="2">
         <v>1</v>
@@ -1157,13 +1174,13 @@
     </row>
     <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D17" s="2">
         <v>1</v>
@@ -1171,13 +1188,13 @@
     </row>
     <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D18" s="2">
         <v>1</v>
@@ -1185,13 +1202,13 @@
     </row>
     <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D19" s="2">
         <v>1</v>
@@ -1199,13 +1216,13 @@
     </row>
     <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A20" s="8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D20" s="2">
         <v>1</v>
@@ -1213,13 +1230,13 @@
     </row>
     <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D21" s="2">
         <v>1</v>
@@ -1227,13 +1244,13 @@
     </row>
     <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A22" s="6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D22" s="2">
         <v>1</v>
@@ -1241,13 +1258,13 @@
     </row>
     <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A23" s="6" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D23" s="2">
         <v>1</v>
@@ -1255,13 +1272,13 @@
     </row>
     <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A24" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D24" s="2">
         <v>31</v>
@@ -1269,13 +1286,13 @@
     </row>
     <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D25" s="2">
         <v>15</v>
@@ -1283,13 +1300,13 @@
     </row>
     <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D26" s="2">
         <v>1</v>
@@ -1297,13 +1314,13 @@
     </row>
     <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D27" s="2">
         <v>1</v>
@@ -1311,13 +1328,13 @@
     </row>
     <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D28" s="2">
         <v>5</v>
@@ -1325,13 +1342,13 @@
     </row>
     <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D29" s="2">
         <v>5</v>
@@ -1339,13 +1356,13 @@
     </row>
     <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D30" s="2">
         <v>1</v>
@@ -1353,13 +1370,13 @@
     </row>
     <row r="31" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D31" s="2">
         <v>2</v>
@@ -1367,13 +1384,13 @@
     </row>
     <row r="32" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D32" s="2">
         <v>6</v>
@@ -1381,13 +1398,13 @@
     </row>
     <row r="33" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D33" s="2">
         <v>1</v>
@@ -1395,13 +1412,13 @@
     </row>
     <row r="34" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D34" s="2">
         <v>6</v>
@@ -1409,13 +1426,13 @@
     </row>
     <row r="35" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D35" s="2">
         <v>2</v>
@@ -1423,13 +1440,13 @@
     </row>
     <row r="36" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D36" s="2">
         <v>2</v>
@@ -1437,13 +1454,13 @@
     </row>
     <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D37" s="2">
         <v>1</v>
@@ -1451,13 +1468,13 @@
     </row>
     <row r="38" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A38" s="6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D38" s="2">
         <v>1</v>
@@ -1465,13 +1482,13 @@
     </row>
     <row r="39" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D39" s="2">
         <v>1</v>
@@ -1479,13 +1496,13 @@
     </row>
     <row r="40" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D40" s="2">
         <v>1</v>
@@ -1493,13 +1510,13 @@
     </row>
     <row r="41" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A41" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D41" s="2">
         <v>2</v>
@@ -1507,13 +1524,13 @@
     </row>
     <row r="42" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D42" s="2">
         <v>1</v>
@@ -1521,13 +1538,13 @@
     </row>
     <row r="43" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D43" s="2">
         <v>1</v>
@@ -1535,13 +1552,13 @@
     </row>
     <row r="44" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A44" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D44" s="2">
         <v>1</v>
@@ -1549,13 +1566,13 @@
     </row>
     <row r="45" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D45" s="2">
         <v>1</v>
@@ -1563,13 +1580,13 @@
     </row>
     <row r="46" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D46" s="2">
         <v>1</v>
@@ -1577,13 +1594,13 @@
     </row>
     <row r="47" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A47" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D47" s="2">
         <v>1</v>
@@ -1591,13 +1608,13 @@
     </row>
     <row r="48" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A48" s="6" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D48" s="2">
         <v>1</v>
@@ -1605,13 +1622,13 @@
     </row>
     <row r="49" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A49" s="6" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>61</v>
+        <v>156</v>
       </c>
       <c r="D49" s="2">
         <v>1</v>
@@ -1619,13 +1636,13 @@
     </row>
     <row r="50" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A50" s="1" t="s">
-        <v>56</v>
+        <v>157</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D50" s="2">
         <v>1</v>
@@ -1633,13 +1650,13 @@
     </row>
     <row r="51" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A51" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D51" s="2">
         <v>1</v>
@@ -1647,11 +1664,11 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="10" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B52" s="10"/>
       <c r="C52" s="11" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D52" s="12">
         <v>1</v>
@@ -1659,11 +1676,11 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="10" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B53" s="10"/>
       <c r="C53" s="11" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D53" s="12">
         <v>1</v>
@@ -1671,11 +1688,11 @@
     </row>
     <row r="54" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A54" s="10" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B54" s="10"/>
       <c r="C54" s="13" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D54" s="12">
         <v>3</v>
@@ -1683,11 +1700,11 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="10" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B55" s="10"/>
       <c r="C55" s="11" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D55" s="12">
         <v>1</v>
@@ -1695,18 +1712,31 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="10" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B56" s="10"/>
       <c r="C56" s="14" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D56" s="12">
         <v>1</v>
       </c>
     </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A59" s="15" t="s">
+        <v>159</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A59"/>
+  </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
-  <pageSetup scale="76" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="68" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>